--- a/biology/Zoologie/Geomys_bursarius/Geomys_bursarius.xlsx
+++ b/biology/Zoologie/Geomys_bursarius/Geomys_bursarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaufre brun, Gaufre à poche
-Le Gaufre brun[1] (Geomys bursarius), appelé aussi Gaufre à poche[1],[2], est une espèce faisant partie de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues.
+Le Gaufre brun (Geomys bursarius), appelé aussi Gaufre à poche est une espèce faisant partie de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues.
 L'espèce a été décrite pour la première fois en 1800 par George Kearsley Shaw (1751-1813), qui est un botaniste et zoologiste britannique.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre ce rongeur principalement aux États-Unis et un peu au Canada, au sud de Winnipeg dans la vallée de la Rivière Rouge, au Manitoba.
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012) :
 sous-espèce Geomys bursarius bursarius
 sous-espèce Geomys bursarius illinoensis
 sous-espèce Geomys bursarius industrius
@@ -583,7 +601,7 @@
 sous-espèce Geomys bursarius missouriensis
 sous-espèce Geomys bursarius ozarkensis
 sous-espèce Geomys bursarius wisconsinensis
-Selon NCBI  (5 nov. 2012)[4] :
+Selon NCBI  (5 nov. 2012) :
 sous-espèce Geomys bursarius bursarius
 sous-espèce Geomys bursarius halli
 sous-espèce Geomys bursarius illinoensis
